--- a/output/excel/filled_R-DTH-411.1 ACTA ENTREGA DESCRIPTIVO CARGO.xlsx
+++ b/output/excel/filled_R-DTH-411.1 ACTA ENTREGA DESCRIPTIVO CARGO.xlsx
@@ -865,7 +865,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.83203125" defaultRowHeight="15"/>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="C7" s="54" t="inlineStr">
         <is>
-          <t>Voluptatem sed dolor</t>
+          <t xml:space="preserve">Consequuntur fugiat </t>
         </is>
       </c>
       <c r="D7" s="7" t="n"/>
@@ -1449,22 +1449,22 @@
     <row r="14" ht="62" customHeight="1">
       <c r="B14" s="55" t="inlineStr">
         <is>
-          <t>1 de septiembre de 1980</t>
+          <t>07-12-2023</t>
         </is>
       </c>
       <c r="C14" s="19" t="inlineStr">
         <is>
-          <t>Non aut possimus ni</t>
+          <t>Aut et officia repel</t>
         </is>
       </c>
       <c r="D14" s="19" t="inlineStr">
         <is>
-          <t>Repudiandae voluptat</t>
+          <t>Hic ipsam ab volupta</t>
         </is>
       </c>
       <c r="E14" s="19" t="inlineStr">
         <is>
-          <t>Ut aperiam est autem</t>
+          <t>Est aut deserunt qu</t>
         </is>
       </c>
       <c r="F14" s="21" t="n"/>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="D19" s="56" t="inlineStr">
         <is>
-          <t>1 de septiembre de 1980</t>
+          <t>07-12-2023</t>
         </is>
       </c>
       <c r="E19" s="8" t="n"/>
